--- a/0. Source Layer/components/reports/Dragsholm_Sparekasse(Broker).xlsx
+++ b/0. Source Layer/components/reports/Dragsholm_Sparekasse(Broker).xlsx
@@ -507,31 +507,31 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0e83a8d8-b870-4565-b4c5-bdae05f42730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tele Celular Sul Participacoes S.A.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12/7/1961</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>48</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>b04575ab-57a6-4892-a506-18c3a3833bfe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Fomento Economico Mexicano S.A. de C.V.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7/8/1977</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>29</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>prototype</t>
@@ -539,12 +539,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>304-380-1927</t>
+          <t>667-875-8361</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>enquiries@fomentoeconomicomexicanosadecv.org</t>
+          <t>sales@telecelularsulparticipacoessa.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -554,20 +554,20 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CTC</t>
+          <t>experian</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>372407858764373</t>
+          <t>345961677689058</t>
         </is>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$38,074,956,130.00</t>
+          <t>$86,501,924,944.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -578,30 +578,30 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>df98f86a-e21a-4c11-bb75-716aea0217fa</t>
+          <t>3b9e17d2-96d2-49a6-a4e9-745dcdad023e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aluminum Corp of China Ltd.</t>
+          <t>Bennett Environmental Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5/16/1982</t>
+          <t>5/15/1962</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -610,12 +610,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>814-039-1974</t>
+          <t>561-685-4405</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>marketing@aluminumcorpofchinaltd.org</t>
+          <t>sales@bennettenvironmentalinc.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Banca d italia</t>
+          <t>CTC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>344001283108028</t>
+          <t>379251399102005</t>
         </is>
       </c>
       <c r="M3" t="b">
@@ -638,7 +638,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$46,645,443,957.00</t>
+          <t>$52,385,979,282.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
